--- a/Figures/Summary Statistics Table_Figure_2.xlsx
+++ b/Figures/Summary Statistics Table_Figure_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hk/Documents/GitHub/CIND820/CIND820_Capstone Project/CIND820_CAPSTONE/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6445B1C-1DA3-014D-8B35-2A8E895D1865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0D602-4809-B54B-87FC-B239D85EF4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,7 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,17 +594,17 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G61"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -628,7 +634,6 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>6</v>
       </c>
@@ -637,9 +642,6 @@
       </c>
       <c r="E2" s="2">
         <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.35</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -695,16 +697,11 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.8</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -714,16 +711,11 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.45</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -733,7 +725,6 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -742,9 +733,6 @@
       </c>
       <c r="E7" s="2">
         <v>6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.38</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -754,16 +742,11 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>18</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.95</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -773,7 +756,6 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
@@ -782,9 +764,6 @@
       </c>
       <c r="E9" s="2">
         <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.05</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -817,7 +796,6 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>4</v>
       </c>
@@ -826,9 +804,6 @@
       </c>
       <c r="E11" s="2">
         <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -838,16 +813,11 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -880,16 +850,11 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.61</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -899,16 +864,11 @@
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.27</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -918,16 +878,11 @@
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.11</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -937,16 +892,11 @@
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -956,16 +906,11 @@
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>21</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.01</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -975,16 +920,11 @@
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.75</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -994,16 +934,11 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>43</v>
-      </c>
-      <c r="F20" s="2">
-        <v>13.01</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1013,16 +948,11 @@
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1032,16 +962,11 @@
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
       <c r="D22" s="2">
         <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>59</v>
-      </c>
-      <c r="F22" s="2">
-        <v>14.36</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1051,16 +976,11 @@
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="2">
         <v>112082</v>
-      </c>
-      <c r="F23" s="2">
-        <v>31965.5</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1070,16 +990,11 @@
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1089,16 +1004,11 @@
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.5</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1108,7 +1018,6 @@
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2"/>
       <c r="C26" s="2">
         <v>3</v>
       </c>
@@ -1117,9 +1026,6 @@
       </c>
       <c r="E26" s="2">
         <v>4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.1200000000000001</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
@@ -1129,7 +1035,6 @@
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" s="2">
         <v>2024</v>
       </c>
@@ -1138,9 +1043,6 @@
       </c>
       <c r="E27" s="2">
         <v>2024</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
@@ -1196,16 +1098,11 @@
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2">
         <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.93</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1330,7 +1227,6 @@
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>2</v>
       </c>
@@ -1339,9 +1235,6 @@
       </c>
       <c r="E36" s="2">
         <v>4</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.08</v>
       </c>
       <c r="G36" s="2">
         <v>56.75</v>
@@ -1351,7 +1244,6 @@
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" s="2">
         <v>5</v>
       </c>
@@ -1360,9 +1252,6 @@
       </c>
       <c r="E37" s="2">
         <v>6</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.2</v>
       </c>
       <c r="G37" s="2">
         <v>84.04</v>
@@ -1372,16 +1261,11 @@
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
       <c r="D38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1.04</v>
       </c>
       <c r="G38" s="2">
         <v>86.93</v>
@@ -1391,16 +1275,11 @@
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.5</v>
       </c>
       <c r="G39" s="2">
         <v>92.2</v>
@@ -1410,16 +1289,11 @@
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
       <c r="D40" s="2">
         <v>1</v>
       </c>
       <c r="E40" s="2">
         <v>99</v>
-      </c>
-      <c r="F40" s="2">
-        <v>24.74</v>
       </c>
       <c r="G40" s="2">
         <v>92.2</v>
@@ -1429,16 +1303,11 @@
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
       <c r="D41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.96</v>
       </c>
       <c r="G41" s="2">
         <v>92.2</v>
@@ -1448,11 +1317,6 @@
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
       <c r="G42" s="2">
         <v>100</v>
       </c>
@@ -1461,11 +1325,6 @@
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
       <c r="G43" s="2">
         <v>100</v>
       </c>
@@ -1474,11 +1333,6 @@
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
       <c r="G44" s="2">
         <v>100</v>
       </c>
@@ -1487,11 +1341,6 @@
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
       <c r="G45" s="2">
         <v>100</v>
       </c>
@@ -1500,11 +1349,6 @@
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
       <c r="G46" s="2">
         <v>100</v>
       </c>
@@ -1513,11 +1357,6 @@
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>100</v>
       </c>
@@ -1526,11 +1365,6 @@
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
       <c r="G48" s="2">
         <v>100</v>
       </c>
@@ -1539,11 +1373,6 @@
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
       <c r="G49" s="2">
         <v>100</v>
       </c>
@@ -1552,11 +1381,6 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
       <c r="G50" s="2">
         <v>100</v>
       </c>
@@ -1565,11 +1389,6 @@
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
       <c r="G51" s="2">
         <v>100</v>
       </c>
@@ -1578,11 +1397,6 @@
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
       <c r="G52" s="2">
         <v>100</v>
       </c>
@@ -1591,11 +1405,6 @@
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
       <c r="G53" s="2">
         <v>100</v>
       </c>
@@ -1604,11 +1413,6 @@
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>100</v>
       </c>
@@ -1617,11 +1421,6 @@
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
       <c r="G55" s="2">
         <v>100</v>
       </c>
@@ -1630,11 +1429,6 @@
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>100</v>
       </c>
@@ -1643,11 +1437,6 @@
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
       <c r="G57" s="2">
         <v>100</v>
       </c>
@@ -1656,11 +1445,6 @@
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
       <c r="G58" s="2">
         <v>100</v>
       </c>
@@ -1669,11 +1453,6 @@
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
       <c r="G59" s="2">
         <v>100</v>
       </c>
@@ -1682,11 +1461,6 @@
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
       <c r="G60" s="2">
         <v>100</v>
       </c>
@@ -1695,11 +1469,6 @@
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
       <c r="G61" s="2">
         <v>100</v>
       </c>
